--- a/data/pca/factorExposure/factorExposure_2014-08-19.xlsx
+++ b/data/pca/factorExposure/factorExposure_2014-08-19.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,18 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,33 +735,57 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>0.007315029287732339</v>
+        <v>0.01916264729941248</v>
       </c>
       <c r="C2">
-        <v>-0.1202333725407372</v>
+        <v>-0.06864881815724862</v>
       </c>
       <c r="D2">
-        <v>0.026145291972466</v>
+        <v>-0.03043371717140786</v>
       </c>
       <c r="E2">
-        <v>0.214375912816415</v>
+        <v>0.01973903664300691</v>
       </c>
       <c r="F2">
-        <v>0.03891017489537574</v>
+        <v>0.06591406537324025</v>
       </c>
       <c r="G2">
-        <v>-0.07358744127477178</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.152097577275819</v>
+      </c>
+      <c r="H2">
+        <v>-0.01411236432547899</v>
+      </c>
+      <c r="I2">
+        <v>0.02677402969989532</v>
+      </c>
+      <c r="J2">
+        <v>0.118416471156676</v>
+      </c>
+      <c r="K2">
+        <v>-0.03357609546403547</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -769,33 +805,57 @@
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>0.01820776031591313</v>
+        <v>0.01885292580138156</v>
       </c>
       <c r="C4">
-        <v>-0.1671306059585228</v>
+        <v>-0.1428034767694178</v>
       </c>
       <c r="D4">
-        <v>0.03795267347754521</v>
+        <v>-0.0648197637134867</v>
       </c>
       <c r="E4">
-        <v>0.04775673731657609</v>
+        <v>0.0147888888271576</v>
       </c>
       <c r="F4">
-        <v>-0.06945909160314202</v>
+        <v>-0.03072838113818659</v>
       </c>
       <c r="G4">
-        <v>0.02116766878149623</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.06882055354909782</v>
+      </c>
+      <c r="H4">
+        <v>0.03466890336945512</v>
+      </c>
+      <c r="I4">
+        <v>0.08901661488329676</v>
+      </c>
+      <c r="J4">
+        <v>0.05124469785611068</v>
+      </c>
+      <c r="K4">
+        <v>0.01233775443376507</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,263 +875,407 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>0.02437705474988807</v>
+        <v>0.03972576999421196</v>
       </c>
       <c r="C6">
-        <v>-0.07560383045527128</v>
+        <v>-0.08633285701714168</v>
       </c>
       <c r="D6">
-        <v>0.05647622580035037</v>
+        <v>-0.02723954950700668</v>
       </c>
       <c r="E6">
-        <v>0.05616370307713398</v>
+        <v>0.01999980073868196</v>
       </c>
       <c r="F6">
-        <v>-0.001947571635232886</v>
+        <v>0.04934988716901317</v>
       </c>
       <c r="G6">
-        <v>0.05002360647466485</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.01572800298935282</v>
+      </c>
+      <c r="H6">
+        <v>0.06055993821322651</v>
+      </c>
+      <c r="I6">
+        <v>0.02962990374909122</v>
+      </c>
+      <c r="J6">
+        <v>-0.04561381800363908</v>
+      </c>
+      <c r="K6">
+        <v>-0.0337110952070419</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>0.006142724718359221</v>
+        <v>0.01919715255391924</v>
       </c>
       <c r="C7">
-        <v>-0.0692531856344958</v>
+        <v>-0.0702743983172202</v>
       </c>
       <c r="D7">
-        <v>0.03733156402983098</v>
+        <v>-0.03122442571965192</v>
       </c>
       <c r="E7">
-        <v>0.01277284959685888</v>
+        <v>0.01133198339664618</v>
       </c>
       <c r="F7">
-        <v>-0.02534628017356758</v>
+        <v>-0.01443475033711091</v>
       </c>
       <c r="G7">
-        <v>0.03939758247169452</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.004734205003665614</v>
+      </c>
+      <c r="H7">
+        <v>0.03843239819375794</v>
+      </c>
+      <c r="I7">
+        <v>0.07800825733729054</v>
+      </c>
+      <c r="J7">
+        <v>0.06481548596319255</v>
+      </c>
+      <c r="K7">
+        <v>-0.02201054142531003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>-0.01133288984678403</v>
+        <v>0.001438041655156122</v>
       </c>
       <c r="C8">
-        <v>-0.07344517112551004</v>
+        <v>-0.06103800734697701</v>
       </c>
       <c r="D8">
-        <v>0.04461300878702963</v>
+        <v>-0.04859127277747573</v>
       </c>
       <c r="E8">
-        <v>0.05624837436919717</v>
+        <v>0.05402325865247907</v>
       </c>
       <c r="F8">
-        <v>-0.01177222205669911</v>
+        <v>0.02403629111454559</v>
       </c>
       <c r="G8">
-        <v>-0.01417809924503557</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.04501256741768853</v>
+      </c>
+      <c r="H8">
+        <v>-0.006435935220682431</v>
+      </c>
+      <c r="I8">
+        <v>0.05556482775935851</v>
+      </c>
+      <c r="J8">
+        <v>-0.008528267467706694</v>
+      </c>
+      <c r="K8">
+        <v>0.009599016651112947</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>0.01126353699349735</v>
+        <v>0.01351588606111408</v>
       </c>
       <c r="C9">
-        <v>-0.1188882384959341</v>
+        <v>-0.1002809488242605</v>
       </c>
       <c r="D9">
-        <v>0.05083498640603635</v>
+        <v>-0.03997281926604365</v>
       </c>
       <c r="E9">
-        <v>0.01504478267892666</v>
+        <v>-0.009534842518035382</v>
       </c>
       <c r="F9">
-        <v>-0.008394038820730627</v>
+        <v>-0.01337194761690497</v>
       </c>
       <c r="G9">
-        <v>0.03580305648769172</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.04578471898745785</v>
+      </c>
+      <c r="H9">
+        <v>0.02030938491226553</v>
+      </c>
+      <c r="I9">
+        <v>0.09384851131460259</v>
+      </c>
+      <c r="J9">
+        <v>0.06092796081489069</v>
+      </c>
+      <c r="K9">
+        <v>-0.01470235885060366</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>0.2646833735266312</v>
+        <v>0.2474776555005597</v>
       </c>
       <c r="C10">
-        <v>0.07917632611205783</v>
+        <v>0.09708988859261918</v>
       </c>
       <c r="D10">
-        <v>-0.02430343614444523</v>
+        <v>0.002272058937020619</v>
       </c>
       <c r="E10">
-        <v>-0.04298378977186134</v>
+        <v>0.05384425233930252</v>
       </c>
       <c r="F10">
-        <v>-0.01143456665918854</v>
+        <v>0.02980137535155993</v>
       </c>
       <c r="G10">
-        <v>-0.01636318301697741</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.02714189146083574</v>
+      </c>
+      <c r="H10">
+        <v>0.02287373376895929</v>
+      </c>
+      <c r="I10">
+        <v>0.03101330809868744</v>
+      </c>
+      <c r="J10">
+        <v>0.0005090693977846821</v>
+      </c>
+      <c r="K10">
+        <v>0.1553776282803099</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>0.005423305353071139</v>
+        <v>0.01737720711333373</v>
       </c>
       <c r="C11">
-        <v>-0.06880335740009952</v>
+        <v>-0.07903423365915135</v>
       </c>
       <c r="D11">
-        <v>0.03139471765209925</v>
+        <v>-0.03751944381460798</v>
       </c>
       <c r="E11">
-        <v>-0.02146595364621247</v>
+        <v>-0.007605192568281909</v>
       </c>
       <c r="F11">
-        <v>-0.008323283593504751</v>
+        <v>-0.01011179562118265</v>
       </c>
       <c r="G11">
-        <v>0.04428409818526631</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.005319462307361234</v>
+      </c>
+      <c r="H11">
+        <v>0.01273681994853337</v>
+      </c>
+      <c r="I11">
+        <v>0.03110274938973997</v>
+      </c>
+      <c r="J11">
+        <v>0.01826005273734219</v>
+      </c>
+      <c r="K11">
+        <v>-0.02766069393040043</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>0.004011717529320983</v>
+        <v>0.01702489525154949</v>
       </c>
       <c r="C12">
-        <v>-0.04448559870283034</v>
+        <v>-0.05259741468651408</v>
       </c>
       <c r="D12">
-        <v>0.03710066617509381</v>
+        <v>-0.02586529241723293</v>
       </c>
       <c r="E12">
-        <v>-0.00717774604350297</v>
+        <v>-0.01199032176028477</v>
       </c>
       <c r="F12">
-        <v>0.0187391733629194</v>
+        <v>0.01367415483105209</v>
       </c>
       <c r="G12">
-        <v>0.05071232388091456</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.003988628958731149</v>
+      </c>
+      <c r="H12">
+        <v>0.02744126374441637</v>
+      </c>
+      <c r="I12">
+        <v>0.03076123564471546</v>
+      </c>
+      <c r="J12">
+        <v>0.007782035903662895</v>
+      </c>
+      <c r="K12">
+        <v>-0.01225510803751498</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>0.01109236364448367</v>
+        <v>0.004453884322862728</v>
       </c>
       <c r="C13">
-        <v>-0.1206521493755953</v>
+        <v>-0.1101079413361368</v>
       </c>
       <c r="D13">
-        <v>0.08343393295656693</v>
+        <v>-0.04099627684164721</v>
       </c>
       <c r="E13">
-        <v>0.07018708760215135</v>
+        <v>0.01449745965051192</v>
       </c>
       <c r="F13">
-        <v>0.06496631566874515</v>
+        <v>0.1248135783453046</v>
       </c>
       <c r="G13">
-        <v>0.1306317285185983</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.1038656399044354</v>
+      </c>
+      <c r="H13">
+        <v>0.1302810121504792</v>
+      </c>
+      <c r="I13">
+        <v>0.04736161113007764</v>
+      </c>
+      <c r="J13">
+        <v>0.2070093851009706</v>
+      </c>
+      <c r="K13">
+        <v>0.1323532421831227</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>0.01122782961967349</v>
+        <v>0.02085043167206484</v>
       </c>
       <c r="C14">
-        <v>-0.07464935770529681</v>
+        <v>-0.07275744901261244</v>
       </c>
       <c r="D14">
-        <v>0.04388476608886174</v>
+        <v>-0.04735607625473059</v>
       </c>
       <c r="E14">
-        <v>0.0361294674507321</v>
+        <v>0.001516030844010324</v>
       </c>
       <c r="F14">
-        <v>0.0324604203312505</v>
+        <v>0.0453340425094965</v>
       </c>
       <c r="G14">
-        <v>0.08211747391776236</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.003594834164519419</v>
+      </c>
+      <c r="H14">
+        <v>0.1173736681912267</v>
+      </c>
+      <c r="I14">
+        <v>0.1633432200355751</v>
+      </c>
+      <c r="J14">
+        <v>0.07571289774999611</v>
+      </c>
+      <c r="K14">
+        <v>-0.01774054443046387</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>0.009215119003884132</v>
+        <v>0.004443687523241993</v>
       </c>
       <c r="C15">
-        <v>-0.07145754073178191</v>
+        <v>-0.0703623519013107</v>
       </c>
       <c r="D15">
-        <v>0.03166476354975697</v>
+        <v>-0.02977892752761271</v>
       </c>
       <c r="E15">
-        <v>0.04329735202944536</v>
+        <v>0.0231908454746801</v>
       </c>
       <c r="F15">
-        <v>-0.02203102999639395</v>
+        <v>-0.004849486471984601</v>
       </c>
       <c r="G15">
-        <v>0.01781890644777254</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>0.02580859490990611</v>
+      </c>
+      <c r="H15">
+        <v>0.03008887284566598</v>
+      </c>
+      <c r="I15">
+        <v>0.06840804859398002</v>
+      </c>
+      <c r="J15">
+        <v>0.0215697987992434</v>
+      </c>
+      <c r="K15">
+        <v>-0.0274020246713246</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>0.008054504696839299</v>
+        <v>0.01657316050546387</v>
       </c>
       <c r="C16">
-        <v>-0.05581425534975745</v>
+        <v>-0.06104619880294854</v>
       </c>
       <c r="D16">
-        <v>0.02793989660320139</v>
+        <v>-0.02675553739490717</v>
       </c>
       <c r="E16">
-        <v>-0.01511422888938019</v>
+        <v>-0.01201803371220721</v>
       </c>
       <c r="F16">
-        <v>0.005441426778022014</v>
+        <v>-0.006619813654996237</v>
       </c>
       <c r="G16">
-        <v>0.02704534025301968</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.0002413211664715622</v>
+      </c>
+      <c r="H16">
+        <v>0.009965678620554579</v>
+      </c>
+      <c r="I16">
+        <v>0.02358270521312378</v>
+      </c>
+      <c r="J16">
+        <v>0.009825721186079746</v>
+      </c>
+      <c r="K16">
+        <v>-0.01869495095390804</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1295,22 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,10 +1330,22 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1137,171 +1365,267 @@
       <c r="G19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>0.0120131115159222</v>
+        <v>0.01563803158003998</v>
       </c>
       <c r="C20">
-        <v>-0.09031266157994765</v>
+        <v>-0.08295669791744145</v>
       </c>
       <c r="D20">
-        <v>0.04206211118346673</v>
+        <v>-0.02632467399081634</v>
       </c>
       <c r="E20">
-        <v>-0.0262363647119688</v>
+        <v>0.01136154277627352</v>
       </c>
       <c r="F20">
-        <v>0.002580276500194432</v>
+        <v>-0.02227234068706441</v>
       </c>
       <c r="G20">
-        <v>0.09744045430329562</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.009415670135973797</v>
+      </c>
+      <c r="H20">
+        <v>0.04924238444696798</v>
+      </c>
+      <c r="I20">
+        <v>0.07202449269493685</v>
+      </c>
+      <c r="J20">
+        <v>0.01688129733876716</v>
+      </c>
+      <c r="K20">
+        <v>-0.01346206651382416</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>0.000869049327601404</v>
+        <v>0.01399193889727283</v>
       </c>
       <c r="C21">
-        <v>-0.09093751555490134</v>
+        <v>-0.07041004924797839</v>
       </c>
       <c r="D21">
-        <v>-0.0111916104988224</v>
+        <v>-0.01886788059183213</v>
       </c>
       <c r="E21">
-        <v>0.04343351676715449</v>
+        <v>0.009694081786190823</v>
       </c>
       <c r="F21">
-        <v>0.07086355331664686</v>
+        <v>0.09779499913876707</v>
       </c>
       <c r="G21">
-        <v>0.02598295379593619</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.0094641348240738</v>
+      </c>
+      <c r="H21">
+        <v>0.03500717626129218</v>
+      </c>
+      <c r="I21">
+        <v>0.1099903429861565</v>
+      </c>
+      <c r="J21">
+        <v>0.08564169090104155</v>
+      </c>
+      <c r="K21">
+        <v>0.0004031554806646413</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>0.01353846108245436</v>
+        <v>0.007035557261159945</v>
       </c>
       <c r="C22">
-        <v>-0.2407341843456964</v>
+        <v>-0.1732079888859795</v>
       </c>
       <c r="D22">
-        <v>-0.07543833940625035</v>
+        <v>-0.02035973252224395</v>
       </c>
       <c r="E22">
-        <v>0.2932549505596121</v>
+        <v>0.1821665362409119</v>
       </c>
       <c r="F22">
-        <v>-0.3368217639298071</v>
+        <v>-0.03719475660590367</v>
       </c>
       <c r="G22">
-        <v>-0.06265572184720501</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>0.4805672372964181</v>
+      </c>
+      <c r="H22">
+        <v>-0.02449977010762857</v>
+      </c>
+      <c r="I22">
+        <v>-0.3131512854839035</v>
+      </c>
+      <c r="J22">
+        <v>-0.122283708260329</v>
+      </c>
+      <c r="K22">
+        <v>-0.02142454377533532</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>0.01446268349305149</v>
+        <v>0.01217548041594685</v>
       </c>
       <c r="C23">
-        <v>-0.2447003765807757</v>
+        <v>-0.1765356345396641</v>
       </c>
       <c r="D23">
-        <v>-0.08011200213268109</v>
+        <v>-0.01989659826528693</v>
       </c>
       <c r="E23">
-        <v>0.2881096156880238</v>
+        <v>0.1736041272315334</v>
       </c>
       <c r="F23">
-        <v>-0.3319111376020782</v>
+        <v>-0.03583865128482391</v>
       </c>
       <c r="G23">
-        <v>-0.06282370804029312</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>0.4690846421426492</v>
+      </c>
+      <c r="H23">
+        <v>-0.02165286417995958</v>
+      </c>
+      <c r="I23">
+        <v>-0.2916601284116001</v>
+      </c>
+      <c r="J23">
+        <v>-0.1129395458493457</v>
+      </c>
+      <c r="K23">
+        <v>-0.02608527796423944</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>0.005399383329851562</v>
+        <v>0.01709720245656401</v>
       </c>
       <c r="C24">
-        <v>-0.05739451918967595</v>
+        <v>-0.06348822807871589</v>
       </c>
       <c r="D24">
-        <v>0.04376933081125298</v>
+        <v>-0.0397765454078628</v>
       </c>
       <c r="E24">
-        <v>-0.01029816463530055</v>
+        <v>-0.008820825545884746</v>
       </c>
       <c r="F24">
-        <v>-0.002856767513440223</v>
+        <v>-0.008851061271130882</v>
       </c>
       <c r="G24">
-        <v>0.05880644217079316</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.0004972795463266503</v>
+      </c>
+      <c r="H24">
+        <v>0.02713412816468832</v>
+      </c>
+      <c r="I24">
+        <v>0.0376936271032847</v>
+      </c>
+      <c r="J24">
+        <v>0.02348573184712156</v>
+      </c>
+      <c r="K24">
+        <v>-0.0243383716299636</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>0.006514978075952702</v>
+        <v>0.02140761424676469</v>
       </c>
       <c r="C25">
-        <v>-0.06587071163385651</v>
+        <v>-0.06709544410252821</v>
       </c>
       <c r="D25">
-        <v>0.02313252540500635</v>
+        <v>-0.03240151634018375</v>
       </c>
       <c r="E25">
-        <v>-0.01639126930903369</v>
+        <v>-0.01074969083550623</v>
       </c>
       <c r="F25">
-        <v>0.003082273493070727</v>
+        <v>-0.009729246003667797</v>
       </c>
       <c r="G25">
-        <v>0.05352506653091513</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.005707736579985179</v>
+      </c>
+      <c r="H25">
+        <v>0.0182618059041622</v>
+      </c>
+      <c r="I25">
+        <v>0.03468163222760026</v>
+      </c>
+      <c r="J25">
+        <v>0.02116527223156537</v>
+      </c>
+      <c r="K25">
+        <v>-0.01149422228977538</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B26">
-        <v>0.006110370138025138</v>
+        <v>0.02259618099687017</v>
       </c>
       <c r="C26">
-        <v>-0.04987309822883797</v>
+        <v>-0.05539687298248398</v>
       </c>
       <c r="D26">
-        <v>0.07857077595356</v>
+        <v>-0.06214365607002471</v>
       </c>
       <c r="E26">
-        <v>0.0009288276434145359</v>
+        <v>-0.006893767436224156</v>
       </c>
       <c r="F26">
-        <v>0.02747988565963204</v>
+        <v>-0.01279678589006214</v>
       </c>
       <c r="G26">
-        <v>0.06303254706489236</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.0016618113026485</v>
+      </c>
+      <c r="H26">
+        <v>0.007239905952429071</v>
+      </c>
+      <c r="I26">
+        <v>0.09433333947721581</v>
+      </c>
+      <c r="J26">
+        <v>0.08433456855732008</v>
+      </c>
+      <c r="K26">
+        <v>-0.05911657614612528</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1321,217 +1645,337 @@
       <c r="G27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B28">
-        <v>0.3652263439329823</v>
+        <v>0.3100452815515396</v>
       </c>
       <c r="C28">
-        <v>0.08344502905698853</v>
+        <v>0.1142072444929302</v>
       </c>
       <c r="D28">
-        <v>-0.01926342897431411</v>
+        <v>0.03281670870344951</v>
       </c>
       <c r="E28">
-        <v>-0.0524119570836549</v>
+        <v>0.02217988770544664</v>
       </c>
       <c r="F28">
-        <v>0.06032417572949697</v>
+        <v>0.01779910924670842</v>
       </c>
       <c r="G28">
-        <v>-0.08742336730700004</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.04587596889449276</v>
+      </c>
+      <c r="H28">
+        <v>-0.1037321787730529</v>
+      </c>
+      <c r="I28">
+        <v>0.06434269149288409</v>
+      </c>
+      <c r="J28">
+        <v>0.03794247542581473</v>
+      </c>
+      <c r="K28">
+        <v>0.2088427555258107</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B29">
-        <v>0.01004132895934906</v>
+        <v>0.01693297691680396</v>
       </c>
       <c r="C29">
-        <v>-0.08131841032456984</v>
+        <v>-0.08305589935715421</v>
       </c>
       <c r="D29">
-        <v>0.0487949696049747</v>
+        <v>-0.04865409911321249</v>
       </c>
       <c r="E29">
-        <v>0.01777928746115774</v>
+        <v>-0.01913879249355459</v>
       </c>
       <c r="F29">
-        <v>0.03617968676444665</v>
+        <v>0.04167681776225524</v>
       </c>
       <c r="G29">
-        <v>0.1160068030044343</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.002523651627598982</v>
+      </c>
+      <c r="H29">
+        <v>0.1736216229350756</v>
+      </c>
+      <c r="I29">
+        <v>0.2298910389469646</v>
+      </c>
+      <c r="J29">
+        <v>0.1042011719407851</v>
+      </c>
+      <c r="K29">
+        <v>-0.003896875048543024</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B30">
-        <v>0.02609595799570533</v>
+        <v>0.03402767617205404</v>
       </c>
       <c r="C30">
-        <v>-0.171888554198972</v>
+        <v>-0.1449978326355943</v>
       </c>
       <c r="D30">
-        <v>0.07355093803961968</v>
+        <v>-0.05555141876661977</v>
       </c>
       <c r="E30">
-        <v>0.03169216436761987</v>
+        <v>0.03434184250278705</v>
       </c>
       <c r="F30">
-        <v>-0.05132994095426958</v>
+        <v>-0.004596605020076749</v>
       </c>
       <c r="G30">
-        <v>0.03720948525341249</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.04817671931365345</v>
+      </c>
+      <c r="H30">
+        <v>0.01845644202494465</v>
+      </c>
+      <c r="I30">
+        <v>0.04081619735582678</v>
+      </c>
+      <c r="J30">
+        <v>-0.006228820732853929</v>
+      </c>
+      <c r="K30">
+        <v>-0.04384172042078241</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>-0.004142639812691685</v>
+        <v>0.01481421868751101</v>
       </c>
       <c r="C31">
-        <v>-0.0502686705570445</v>
+        <v>-0.0766705925852743</v>
       </c>
       <c r="D31">
-        <v>0.03523169403258512</v>
+        <v>-0.04119266168445266</v>
       </c>
       <c r="E31">
-        <v>-0.01448135699307418</v>
+        <v>0.00277168267124173</v>
       </c>
       <c r="F31">
-        <v>0.007451779224312467</v>
+        <v>-0.0008721332628368289</v>
       </c>
       <c r="G31">
-        <v>0.01046370693558244</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.007867525449857898</v>
+      </c>
+      <c r="H31">
+        <v>-0.01939785674703415</v>
+      </c>
+      <c r="I31">
+        <v>0.04346653641792936</v>
+      </c>
+      <c r="J31">
+        <v>0.01444474206020936</v>
+      </c>
+      <c r="K31">
+        <v>-0.01128848984188709</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>0.01992261960478253</v>
+        <v>0.02228415740553676</v>
       </c>
       <c r="C32">
-        <v>-0.07616327655237727</v>
+        <v>-0.05279331170329173</v>
       </c>
       <c r="D32">
-        <v>0.007921480343341893</v>
+        <v>-0.02434250040422623</v>
       </c>
       <c r="E32">
-        <v>0.1530407148259613</v>
+        <v>-0.001237835049935386</v>
       </c>
       <c r="F32">
-        <v>-0.007582150369196959</v>
+        <v>0.06500082671017111</v>
       </c>
       <c r="G32">
-        <v>0.08036944307547059</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.09728562861741448</v>
+      </c>
+      <c r="H32">
+        <v>0.09425762202882605</v>
+      </c>
+      <c r="I32">
+        <v>0.1182863450820861</v>
+      </c>
+      <c r="J32">
+        <v>0.1164571698638052</v>
+      </c>
+      <c r="K32">
+        <v>0.2545003407292704</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>0.01113504043103549</v>
+        <v>0.01712075741190678</v>
       </c>
       <c r="C33">
-        <v>-0.09094323434674034</v>
+        <v>-0.1020788286821517</v>
       </c>
       <c r="D33">
-        <v>0.06632615503858844</v>
+        <v>-0.05171114596111831</v>
       </c>
       <c r="E33">
-        <v>0.01232139995392694</v>
+        <v>0.01216727791450009</v>
       </c>
       <c r="F33">
-        <v>0.01109304732329919</v>
+        <v>-0.006556471355515743</v>
       </c>
       <c r="G33">
-        <v>0.04516046828046023</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.01886025568556144</v>
+      </c>
+      <c r="H33">
+        <v>0.03354730481658884</v>
+      </c>
+      <c r="I33">
+        <v>0.05117928063573857</v>
+      </c>
+      <c r="J33">
+        <v>0.03413948896035257</v>
+      </c>
+      <c r="K33">
+        <v>0.01791500683411626</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B34">
-        <v>0.002679366753925309</v>
+        <v>0.01784835909531593</v>
       </c>
       <c r="C34">
-        <v>-0.05125202809687008</v>
+        <v>-0.04994263640713101</v>
       </c>
       <c r="D34">
-        <v>0.02270106235004317</v>
+        <v>-0.02074893859806151</v>
       </c>
       <c r="E34">
-        <v>-0.002789463613996377</v>
+        <v>-0.01131522552548937</v>
       </c>
       <c r="F34">
-        <v>0.01948146887346409</v>
+        <v>-0.0009978041042029979</v>
       </c>
       <c r="G34">
-        <v>0.03434904702596709</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.004832231889597489</v>
+      </c>
+      <c r="H34">
+        <v>0.02308454577725565</v>
+      </c>
+      <c r="I34">
+        <v>0.01690668128210228</v>
+      </c>
+      <c r="J34">
+        <v>-0.01743140321342109</v>
+      </c>
+      <c r="K34">
+        <v>-0.01253509692720803</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B35">
-        <v>0.003392299820892122</v>
+        <v>0.01034108898380506</v>
       </c>
       <c r="C35">
-        <v>-0.0292901350862529</v>
+        <v>-0.04538051921829321</v>
       </c>
       <c r="D35">
-        <v>0.008838582942299063</v>
+        <v>-0.02120247680910374</v>
       </c>
       <c r="E35">
-        <v>0.007023524268912274</v>
+        <v>0.005554188249437152</v>
       </c>
       <c r="F35">
-        <v>0.01035354708421829</v>
+        <v>0.01213087002511911</v>
       </c>
       <c r="G35">
-        <v>0.04098140673189957</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>0.004361547876290881</v>
+      </c>
+      <c r="H35">
+        <v>0.07751334696437659</v>
+      </c>
+      <c r="I35">
+        <v>0.1350174529687701</v>
+      </c>
+      <c r="J35">
+        <v>0.03763297971745868</v>
+      </c>
+      <c r="K35">
+        <v>0.01689084285076529</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B36">
-        <v>0.009272252889169712</v>
+        <v>0.01385060891686068</v>
       </c>
       <c r="C36">
-        <v>-0.0544692707855006</v>
+        <v>-0.04611264787359126</v>
       </c>
       <c r="D36">
-        <v>0.06067146543906688</v>
+        <v>-0.04391589070991605</v>
       </c>
       <c r="E36">
-        <v>-0.004543415487295977</v>
+        <v>0.01114612754698628</v>
       </c>
       <c r="F36">
-        <v>0.01318916975481759</v>
+        <v>-0.001578056232714817</v>
       </c>
       <c r="G36">
-        <v>0.04525808646802871</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.01502795421039525</v>
+      </c>
+      <c r="H36">
+        <v>0.007398128243429195</v>
+      </c>
+      <c r="I36">
+        <v>0.07218234817411581</v>
+      </c>
+      <c r="J36">
+        <v>0.06085368730030186</v>
+      </c>
+      <c r="K36">
+        <v>-0.01845953367357096</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,102 +1995,162 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>0.03260966897655895</v>
+        <v>0.009563371721099608</v>
       </c>
       <c r="C38">
-        <v>-0.0516702190507049</v>
+        <v>-0.05854781602056146</v>
       </c>
       <c r="D38">
-        <v>0.04355089953943411</v>
+        <v>-0.03779668840510567</v>
       </c>
       <c r="E38">
-        <v>-0.00855987127225157</v>
+        <v>0.04536827617153034</v>
       </c>
       <c r="F38">
-        <v>0.01137362854962975</v>
+        <v>-0.02005962294558382</v>
       </c>
       <c r="G38">
-        <v>0.05196701881703746</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.007198279613571182</v>
+      </c>
+      <c r="H38">
+        <v>0.02591825049763495</v>
+      </c>
+      <c r="I38">
+        <v>0.06616666726337786</v>
+      </c>
+      <c r="J38">
+        <v>0.03933233785536241</v>
+      </c>
+      <c r="K38">
+        <v>0.06148785893605031</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>0.003391465783741415</v>
+        <v>0.02456006944534579</v>
       </c>
       <c r="C39">
-        <v>-0.1264094909396671</v>
+        <v>-0.1314463708244383</v>
       </c>
       <c r="D39">
-        <v>0.06053551052639217</v>
+        <v>-0.05835107507529175</v>
       </c>
       <c r="E39">
-        <v>-0.00620552808365145</v>
+        <v>0.008415829663380999</v>
       </c>
       <c r="F39">
-        <v>0.01327195469446841</v>
+        <v>0.01213056251721612</v>
       </c>
       <c r="G39">
-        <v>0.07926782161325061</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.02127194407198721</v>
+      </c>
+      <c r="H39">
+        <v>0.04957736506272063</v>
+      </c>
+      <c r="I39">
+        <v>0.0432460830371274</v>
+      </c>
+      <c r="J39">
+        <v>-0.007135525116177262</v>
+      </c>
+      <c r="K39">
+        <v>-0.09094089116803178</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B40">
-        <v>0.005828015364400768</v>
+        <v>0.0146925932407604</v>
       </c>
       <c r="C40">
-        <v>-0.03452735154512045</v>
+        <v>-0.05798429540730449</v>
       </c>
       <c r="D40">
-        <v>0.03222330882832332</v>
+        <v>-0.04421481031236438</v>
       </c>
       <c r="E40">
-        <v>0.1272801376811911</v>
+        <v>0.004529453497476771</v>
       </c>
       <c r="F40">
-        <v>-0.06721574621329326</v>
+        <v>0.03253373721083644</v>
       </c>
       <c r="G40">
-        <v>0.09278220168722066</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.02139655387871135</v>
+      </c>
+      <c r="H40">
+        <v>0.1557519895075814</v>
+      </c>
+      <c r="I40">
+        <v>0.004716516981168233</v>
+      </c>
+      <c r="J40">
+        <v>0.02333832029573972</v>
+      </c>
+      <c r="K40">
+        <v>-0.03564423189027966</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B41">
-        <v>0.01031857872919928</v>
+        <v>0.02196793138669629</v>
       </c>
       <c r="C41">
-        <v>-0.02289213190123004</v>
+        <v>-0.04758045260282186</v>
       </c>
       <c r="D41">
-        <v>0.004688246069174644</v>
+        <v>-0.01486598293080998</v>
       </c>
       <c r="E41">
-        <v>-0.00458453134151794</v>
+        <v>-0.006399197133247727</v>
       </c>
       <c r="F41">
-        <v>0.01008669104859315</v>
+        <v>-0.001485124969239425</v>
       </c>
       <c r="G41">
-        <v>-0.0417972745974725</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.01342304837579238</v>
+      </c>
+      <c r="H41">
+        <v>-0.005066235303036004</v>
+      </c>
+      <c r="I41">
+        <v>0.01947589654727697</v>
+      </c>
+      <c r="J41">
+        <v>0.02354190586295521</v>
+      </c>
+      <c r="K41">
+        <v>0.02650773690597176</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1666,56 +2170,92 @@
       <c r="G42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>0.004697434134444273</v>
+        <v>0.01910188332164801</v>
       </c>
       <c r="C43">
-        <v>-0.02394069923140133</v>
+        <v>-0.04470288571277418</v>
       </c>
       <c r="D43">
-        <v>0.02305888888149911</v>
+        <v>-0.02902701762524987</v>
       </c>
       <c r="E43">
-        <v>-0.004464520797557049</v>
+        <v>0.003518549782134021</v>
       </c>
       <c r="F43">
-        <v>-0.001066178956536535</v>
+        <v>-0.01106391275894806</v>
       </c>
       <c r="G43">
-        <v>-0.002921549535920915</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.008118189192007868</v>
+      </c>
+      <c r="H43">
+        <v>0.008843664671415272</v>
+      </c>
+      <c r="I43">
+        <v>0.03100920758079267</v>
+      </c>
+      <c r="J43">
+        <v>0.02448747512502284</v>
+      </c>
+      <c r="K43">
+        <v>-0.003182149529008034</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B44">
-        <v>0.02091153673813625</v>
+        <v>0.01671032746271503</v>
       </c>
       <c r="C44">
-        <v>-0.1010712390458367</v>
+        <v>-0.09853737799576812</v>
       </c>
       <c r="D44">
-        <v>0.03519327904791104</v>
+        <v>-0.05773350178946288</v>
       </c>
       <c r="E44">
-        <v>0.02705238620672056</v>
+        <v>0.04551253973972889</v>
       </c>
       <c r="F44">
-        <v>-0.02452923803454769</v>
+        <v>-0.01642999249166187</v>
       </c>
       <c r="G44">
-        <v>0.07154379737386717</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.05522418004653565</v>
+      </c>
+      <c r="H44">
+        <v>0.05459173574085846</v>
+      </c>
+      <c r="I44">
+        <v>0.03233860005264774</v>
+      </c>
+      <c r="J44">
+        <v>0.03280177212429591</v>
+      </c>
+      <c r="K44">
+        <v>-0.05032855174398851</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,148 +2275,232 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>-0.00339178191018624</v>
+        <v>0.004906697693288812</v>
       </c>
       <c r="C46">
-        <v>-0.06086496179567624</v>
+        <v>-0.06482127764215451</v>
       </c>
       <c r="D46">
-        <v>0.04625476589381979</v>
+        <v>-0.02761968866333335</v>
       </c>
       <c r="E46">
-        <v>0.01918733703415971</v>
+        <v>0.003338363391547404</v>
       </c>
       <c r="F46">
-        <v>0.0127411898796119</v>
+        <v>0.00797293984974465</v>
       </c>
       <c r="G46">
-        <v>0.05554981933180626</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.006310094958595539</v>
+      </c>
+      <c r="H46">
+        <v>0.05118827137501195</v>
+      </c>
+      <c r="I46">
+        <v>0.07116578942649386</v>
+      </c>
+      <c r="J46">
+        <v>0.06401880951738637</v>
+      </c>
+      <c r="K46">
+        <v>-0.01620809378031269</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>0.005378717745900579</v>
+        <v>0.0221312896127421</v>
       </c>
       <c r="C47">
-        <v>-0.05636540453619115</v>
+        <v>-0.07280154783259256</v>
       </c>
       <c r="D47">
-        <v>0.05773689905383473</v>
+        <v>-0.04323567859527767</v>
       </c>
       <c r="E47">
-        <v>-0.01766849580466397</v>
+        <v>-0.01443753800924067</v>
       </c>
       <c r="F47">
-        <v>0.05041501798517674</v>
+        <v>-0.00297351315408481</v>
       </c>
       <c r="G47">
-        <v>0.02373837425767826</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.00784486351176886</v>
+      </c>
+      <c r="H47">
+        <v>0.01423731612368429</v>
+      </c>
+      <c r="I47">
+        <v>0.06324226567696592</v>
+      </c>
+      <c r="J47">
+        <v>0.04281752635073553</v>
+      </c>
+      <c r="K47">
+        <v>0.01620084352508926</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B48">
-        <v>0.006103174908817417</v>
+        <v>0.0165390761771358</v>
       </c>
       <c r="C48">
-        <v>-0.05559560707950067</v>
+        <v>-0.04574915570662596</v>
       </c>
       <c r="D48">
-        <v>0.06731679747535786</v>
+        <v>-0.05269580560206611</v>
       </c>
       <c r="E48">
-        <v>-0.01028897438508448</v>
+        <v>-0.004102591439688399</v>
       </c>
       <c r="F48">
-        <v>-0.002748868128176235</v>
+        <v>-0.01604763168654056</v>
       </c>
       <c r="G48">
-        <v>0.05116199920494917</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.02431936212911684</v>
+      </c>
+      <c r="H48">
+        <v>0.009226501355838525</v>
+      </c>
+      <c r="I48">
+        <v>0.09935953743297908</v>
+      </c>
+      <c r="J48">
+        <v>0.08078114815932814</v>
+      </c>
+      <c r="K48">
+        <v>-0.03850911674911055</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.02099932782111866</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>-0.04929166830929033</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>-0.008801138247070569</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>-0.02933653671028486</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>-0.01343786284440084</v>
       </c>
       <c r="G49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>-0.07260265486688774</v>
+      </c>
+      <c r="H49">
+        <v>0.05335006145619545</v>
+      </c>
+      <c r="I49">
+        <v>-0.02262604101823409</v>
+      </c>
+      <c r="J49">
+        <v>-0.1081720055006088</v>
+      </c>
+      <c r="K49">
+        <v>-0.05087710835090543</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>-0.000358570114279807</v>
+        <v>0.01560598184764671</v>
       </c>
       <c r="C50">
-        <v>-0.06336011585214282</v>
+        <v>-0.07592126908088211</v>
       </c>
       <c r="D50">
-        <v>0.03275856081389317</v>
+        <v>-0.0320887137111654</v>
       </c>
       <c r="E50">
-        <v>-0.004061269833464494</v>
+        <v>0.002772101172200126</v>
       </c>
       <c r="F50">
-        <v>-0.008245557009256983</v>
+        <v>-0.01094560378996139</v>
       </c>
       <c r="G50">
-        <v>0.02680248332347656</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.0153748410744488</v>
+      </c>
+      <c r="H50">
+        <v>0.001764209221093206</v>
+      </c>
+      <c r="I50">
+        <v>0.06717403926519959</v>
+      </c>
+      <c r="J50">
+        <v>0.01561563193211962</v>
+      </c>
+      <c r="K50">
+        <v>0.05094373381164948</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B51">
-        <v>0.003316322512341429</v>
+        <v>-0.004264367785616455</v>
       </c>
       <c r="C51">
-        <v>-0.0713711968502843</v>
+        <v>-0.03573019742415443</v>
       </c>
       <c r="D51">
-        <v>0.04164055401417546</v>
+        <v>-0.02635066408230498</v>
       </c>
       <c r="E51">
-        <v>0.03401976273022675</v>
+        <v>0.03028855321010399</v>
       </c>
       <c r="F51">
-        <v>0.0009651838534857308</v>
+        <v>0.01848828388750983</v>
       </c>
       <c r="G51">
-        <v>-0.001492165301062454</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.01754105348984537</v>
+      </c>
+      <c r="H51">
+        <v>0.0326676086086983</v>
+      </c>
+      <c r="I51">
+        <v>0.07091720073349901</v>
+      </c>
+      <c r="J51">
+        <v>0.08425099856507987</v>
+      </c>
+      <c r="K51">
+        <v>-0.03356346641010759</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,102 +2520,162 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B53">
-        <v>0.02790089477813159</v>
+        <v>0.06089130325679303</v>
       </c>
       <c r="C53">
-        <v>-0.1144371410587235</v>
+        <v>-0.1316817488670647</v>
       </c>
       <c r="D53">
-        <v>0.06741664655110212</v>
+        <v>-0.05739377741735845</v>
       </c>
       <c r="E53">
-        <v>-0.1348437302607434</v>
+        <v>-0.04690442267320566</v>
       </c>
       <c r="F53">
-        <v>0.04581064396568483</v>
+        <v>0.003062667137030766</v>
       </c>
       <c r="G53">
-        <v>-0.08198089911357075</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.04913912818004044</v>
+      </c>
+      <c r="H53">
+        <v>-0.0929184872691908</v>
+      </c>
+      <c r="I53">
+        <v>-0.00599938099395925</v>
+      </c>
+      <c r="J53">
+        <v>-0.002239425129463395</v>
+      </c>
+      <c r="K53">
+        <v>0.01743330898463302</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B54">
-        <v>0.001490392659189352</v>
+        <v>0.01604029698329273</v>
       </c>
       <c r="C54">
-        <v>-0.06822329370588669</v>
+        <v>-0.07030829175208053</v>
       </c>
       <c r="D54">
-        <v>0.01250714032031374</v>
+        <v>-0.01209510668409399</v>
       </c>
       <c r="E54">
-        <v>-0.01867578924221913</v>
+        <v>-0.01687666097531946</v>
       </c>
       <c r="F54">
-        <v>0.001839258495223834</v>
+        <v>-0.006303916152615309</v>
       </c>
       <c r="G54">
-        <v>0.03313830530667057</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.002348470762081506</v>
+      </c>
+      <c r="H54">
+        <v>0.02467421545906042</v>
+      </c>
+      <c r="I54">
+        <v>0.05446949872289866</v>
+      </c>
+      <c r="J54">
+        <v>0.0329636913340489</v>
+      </c>
+      <c r="K54">
+        <v>-0.02570788026819213</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B55">
-        <v>0.01057002597054145</v>
+        <v>0.03084270345382731</v>
       </c>
       <c r="C55">
-        <v>-0.07536567729993962</v>
+        <v>-0.0831934438638469</v>
       </c>
       <c r="D55">
-        <v>0.06205057616429638</v>
+        <v>-0.05313601404865776</v>
       </c>
       <c r="E55">
-        <v>-0.06356386339469976</v>
+        <v>-0.03857199808066291</v>
       </c>
       <c r="F55">
-        <v>0.03318445407857362</v>
+        <v>-0.006372917208550089</v>
       </c>
       <c r="G55">
-        <v>-0.02116335494918241</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.02874795326155652</v>
+      </c>
+      <c r="H55">
+        <v>-0.04017910058993342</v>
+      </c>
+      <c r="I55">
+        <v>0.001200230648771023</v>
+      </c>
+      <c r="J55">
+        <v>0.009561250580161301</v>
+      </c>
+      <c r="K55">
+        <v>-0.01244225420698434</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B56">
-        <v>0.01017831633917339</v>
+        <v>0.04905355311576351</v>
       </c>
       <c r="C56">
-        <v>-0.1451021325017501</v>
+        <v>-0.1541611681656363</v>
       </c>
       <c r="D56">
-        <v>0.06832784989712527</v>
+        <v>-0.08052152214421757</v>
       </c>
       <c r="E56">
-        <v>-0.10732517088072</v>
+        <v>-0.0933294181423613</v>
       </c>
       <c r="F56">
-        <v>0.0707723484718277</v>
+        <v>0.02571055797867201</v>
       </c>
       <c r="G56">
-        <v>-0.1301838828281807</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.06983294651864973</v>
+      </c>
+      <c r="H56">
+        <v>-0.1651430300939075</v>
+      </c>
+      <c r="I56">
+        <v>0.003444732592970622</v>
+      </c>
+      <c r="J56">
+        <v>-0.02749540372814827</v>
+      </c>
+      <c r="K56">
+        <v>0.001069743801521896</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2011,286 +2695,442 @@
       <c r="G57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B58">
-        <v>0.02937058799945057</v>
+        <v>0.01859189626382924</v>
       </c>
       <c r="C58">
-        <v>-0.2955213474002114</v>
+        <v>-0.1767287881781544</v>
       </c>
       <c r="D58">
-        <v>-0.008920232691896899</v>
+        <v>-0.04423682240425109</v>
       </c>
       <c r="E58">
-        <v>0.1323375094520307</v>
+        <v>0.235628150750208</v>
       </c>
       <c r="F58">
-        <v>-0.2477819247686738</v>
+        <v>0.02518995380670179</v>
       </c>
       <c r="G58">
-        <v>-0.04303112364305655</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.2817666834741978</v>
+      </c>
+      <c r="H58">
+        <v>-0.07192601725126978</v>
+      </c>
+      <c r="I58">
+        <v>0.009944993499693633</v>
+      </c>
+      <c r="J58">
+        <v>0.1533502527751811</v>
+      </c>
+      <c r="K58">
+        <v>0.08079827484984134</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B59">
-        <v>0.2903766853462026</v>
+        <v>0.2887661622681565</v>
       </c>
       <c r="C59">
-        <v>0.0005074914504459998</v>
+        <v>0.05331124911607778</v>
       </c>
       <c r="D59">
-        <v>-0.005241618044077099</v>
+        <v>0.006203453000854024</v>
       </c>
       <c r="E59">
-        <v>0.05536779414897138</v>
+        <v>0.01880090761594753</v>
       </c>
       <c r="F59">
-        <v>0.04677655998234372</v>
+        <v>0.02520380227980156</v>
       </c>
       <c r="G59">
-        <v>-0.01234776069065993</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.04463972776534157</v>
+      </c>
+      <c r="H59">
+        <v>-0.006743166000624259</v>
+      </c>
+      <c r="I59">
+        <v>-0.02854089857287962</v>
+      </c>
+      <c r="J59">
+        <v>-0.002548175104734256</v>
+      </c>
+      <c r="K59">
+        <v>0.03780113926055949</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B60">
-        <v>0.1044029124210134</v>
+        <v>0.1525279105350235</v>
       </c>
       <c r="C60">
-        <v>-0.1423241158675645</v>
+        <v>-0.1588103288084707</v>
       </c>
       <c r="D60">
-        <v>0.083749600821453</v>
+        <v>-0.03910448113843078</v>
       </c>
       <c r="E60">
-        <v>-0.08447834079429252</v>
+        <v>-0.1694518189951441</v>
       </c>
       <c r="F60">
-        <v>0.1908879466739623</v>
+        <v>-0.01450230298150999</v>
       </c>
       <c r="G60">
-        <v>0.2492404819690542</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.08597118367338367</v>
+      </c>
+      <c r="H60">
+        <v>0.2086012600536227</v>
+      </c>
+      <c r="I60">
+        <v>-0.2500500464978422</v>
+      </c>
+      <c r="J60">
+        <v>-0.06480997721051408</v>
+      </c>
+      <c r="K60">
+        <v>-0.02910378234664725</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B61">
-        <v>0.002996520874614593</v>
+        <v>0.02502696786034326</v>
       </c>
       <c r="C61">
-        <v>-0.07936874364828926</v>
+        <v>-0.09857687822984876</v>
       </c>
       <c r="D61">
-        <v>0.06610519173682522</v>
+        <v>-0.05388103368017934</v>
       </c>
       <c r="E61">
-        <v>-0.01759639809590389</v>
+        <v>-0.0166532727267653</v>
       </c>
       <c r="F61">
-        <v>0.03131873129394286</v>
+        <v>-0.00103585081087588</v>
       </c>
       <c r="G61">
-        <v>0.08016608266786479</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.02307108542224939</v>
+      </c>
+      <c r="H61">
+        <v>0.03649627410744039</v>
+      </c>
+      <c r="I61">
+        <v>0.05962275881500654</v>
+      </c>
+      <c r="J61">
+        <v>-0.006430050506462894</v>
+      </c>
+      <c r="K61">
+        <v>-0.03317472990816919</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>-0.002981105569564858</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>-0.01445277645522257</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>-0.002944649832645428</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>-0.0146531073996455</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>-0.01957044217689117</v>
       </c>
       <c r="G62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>0.0284355008281456</v>
+      </c>
+      <c r="H62">
+        <v>0.02047638776615331</v>
+      </c>
+      <c r="I62">
+        <v>0.01928369058709787</v>
+      </c>
+      <c r="J62">
+        <v>-0.005680992721169105</v>
+      </c>
+      <c r="K62">
+        <v>0.008510383813291217</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B63">
-        <v>-0.002136919972628084</v>
+        <v>0.02704324795308218</v>
       </c>
       <c r="C63">
-        <v>-0.05830185313967336</v>
+        <v>-0.06422322084645629</v>
       </c>
       <c r="D63">
-        <v>0.03935512870478648</v>
+        <v>-0.05854954859962819</v>
       </c>
       <c r="E63">
-        <v>-0.02106163594785535</v>
+        <v>-0.01390935964429199</v>
       </c>
       <c r="F63">
-        <v>0.002821200039500977</v>
+        <v>-0.001606992159285814</v>
       </c>
       <c r="G63">
-        <v>0.007614840877470928</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.003418283181521365</v>
+      </c>
+      <c r="H63">
+        <v>0.009909426912864285</v>
+      </c>
+      <c r="I63">
+        <v>0.07059225001500001</v>
+      </c>
+      <c r="J63">
+        <v>0.0158199769623819</v>
+      </c>
+      <c r="K63">
+        <v>-0.01432055356011571</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B64">
-        <v>-0.002734429523325099</v>
+        <v>0.01774529622123088</v>
       </c>
       <c r="C64">
-        <v>-0.0831137396649216</v>
+        <v>-0.09105761845096474</v>
       </c>
       <c r="D64">
-        <v>0.06889520232900664</v>
+        <v>-0.03371126380823968</v>
       </c>
       <c r="E64">
-        <v>-0.003897746897539338</v>
+        <v>-0.01162085100606794</v>
       </c>
       <c r="F64">
-        <v>-0.009301171928140142</v>
+        <v>-0.03644630987388883</v>
       </c>
       <c r="G64">
-        <v>0.05888637458578635</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.04107593932844577</v>
+      </c>
+      <c r="H64">
+        <v>0.06970599273696795</v>
+      </c>
+      <c r="I64">
+        <v>0.04513947707422064</v>
+      </c>
+      <c r="J64">
+        <v>0.01192429034175186</v>
+      </c>
+      <c r="K64">
+        <v>-0.07892353297441324</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B65">
-        <v>0.004584404123570372</v>
+        <v>0.03290248681450151</v>
       </c>
       <c r="C65">
-        <v>-0.08699251433489939</v>
+        <v>-0.0926919083188936</v>
       </c>
       <c r="D65">
-        <v>0.03521528040680319</v>
+        <v>-0.02174989000670367</v>
       </c>
       <c r="E65">
-        <v>0.02347465023224524</v>
+        <v>0.002831146059236014</v>
       </c>
       <c r="F65">
-        <v>0.009772769342732955</v>
+        <v>-0.0162136055028463</v>
       </c>
       <c r="G65">
-        <v>0.07644451015681421</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.003111338577089508</v>
+      </c>
+      <c r="H65">
+        <v>0.08879945753690879</v>
+      </c>
+      <c r="I65">
+        <v>-0.01699037441157916</v>
+      </c>
+      <c r="J65">
+        <v>-0.006897606497806299</v>
+      </c>
+      <c r="K65">
+        <v>-0.06185139909358347</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B66">
-        <v>0.0008882039030588965</v>
+        <v>0.02236103718772319</v>
       </c>
       <c r="C66">
-        <v>-0.168497927404842</v>
+        <v>-0.1711456830180013</v>
       </c>
       <c r="D66">
-        <v>0.05029842741301163</v>
+        <v>-0.04970491043649776</v>
       </c>
       <c r="E66">
-        <v>0.03766336696894202</v>
+        <v>0.006941646904058043</v>
       </c>
       <c r="F66">
-        <v>0.02488598934423366</v>
+        <v>0.01827364449815013</v>
       </c>
       <c r="G66">
-        <v>0.09829854605000919</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.0008760179736988341</v>
+      </c>
+      <c r="H66">
+        <v>0.04544068418129499</v>
+      </c>
+      <c r="I66">
+        <v>0.05985102906201495</v>
+      </c>
+      <c r="J66">
+        <v>-0.01441735553726496</v>
+      </c>
+      <c r="K66">
+        <v>-0.06348476174426423</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B67">
-        <v>0.03195271614669873</v>
+        <v>0.01909524711208656</v>
       </c>
       <c r="C67">
-        <v>-0.02764703445822822</v>
+        <v>-0.05104399138126388</v>
       </c>
       <c r="D67">
-        <v>0.05932356334065301</v>
+        <v>-0.03891169237280433</v>
       </c>
       <c r="E67">
-        <v>-0.03851126678294325</v>
+        <v>0.02469329097022197</v>
       </c>
       <c r="F67">
-        <v>0.0255078293092761</v>
+        <v>-0.02058737715007313</v>
       </c>
       <c r="G67">
-        <v>0.06367322896170136</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.0243337225157942</v>
+      </c>
+      <c r="H67">
+        <v>0.04338837066304367</v>
+      </c>
+      <c r="I67">
+        <v>0.03140841685931042</v>
+      </c>
+      <c r="J67">
+        <v>0.05052452704580602</v>
+      </c>
+      <c r="K67">
+        <v>0.043091666868512</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B68">
-        <v>0.2956546471400301</v>
+        <v>0.2928825995264259</v>
       </c>
       <c r="C68">
-        <v>0.02065053841062731</v>
+        <v>0.07716236313288533</v>
       </c>
       <c r="D68">
-        <v>0.00403746773649849</v>
+        <v>0.0255697541666412</v>
       </c>
       <c r="E68">
-        <v>0.02358255545154147</v>
+        <v>-0.007736294601903639</v>
       </c>
       <c r="F68">
-        <v>0.001356707540300359</v>
+        <v>0.0007002141443507227</v>
       </c>
       <c r="G68">
-        <v>0.006643508440883374</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.05119661070491732</v>
+      </c>
+      <c r="H68">
+        <v>-0.01776981434440567</v>
+      </c>
+      <c r="I68">
+        <v>0.0373269721592017</v>
+      </c>
+      <c r="J68">
+        <v>0.01545146370953279</v>
+      </c>
+      <c r="K68">
+        <v>0.04425686583297125</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B69">
-        <v>0.007725655674980247</v>
+        <v>0.01010853528925159</v>
       </c>
       <c r="C69">
-        <v>-0.05176395802322437</v>
+        <v>-0.04546665639375511</v>
       </c>
       <c r="D69">
-        <v>0.05541356199830202</v>
+        <v>-0.02523642452833128</v>
       </c>
       <c r="E69">
-        <v>-0.0276143216183073</v>
+        <v>-0.001252895056013303</v>
       </c>
       <c r="F69">
-        <v>0.003757916336211471</v>
+        <v>0.00724903558091488</v>
       </c>
       <c r="G69">
-        <v>0.0279632162436554</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.01032603907309157</v>
+      </c>
+      <c r="H69">
+        <v>0.02033357082753122</v>
+      </c>
+      <c r="I69">
+        <v>0.01916509057957863</v>
+      </c>
+      <c r="J69">
+        <v>0.03418838247009325</v>
+      </c>
+      <c r="K69">
+        <v>0.02256567327968286</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,585 +3150,897 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B71">
-        <v>0.288673185690259</v>
+        <v>0.2743283338752778</v>
       </c>
       <c r="C71">
-        <v>0.03667854312157626</v>
+        <v>0.08050802087062844</v>
       </c>
       <c r="D71">
-        <v>-0.009610059853614858</v>
+        <v>0.02233901416710664</v>
       </c>
       <c r="E71">
-        <v>0.02325372107226672</v>
+        <v>0.03394518784893771</v>
       </c>
       <c r="F71">
-        <v>-0.02007761736509815</v>
+        <v>-0.00428190863273779</v>
       </c>
       <c r="G71">
-        <v>-0.005198733494090307</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.06152772108905194</v>
+      </c>
+      <c r="H71">
+        <v>-0.01608985520213657</v>
+      </c>
+      <c r="I71">
+        <v>0.04252828288071068</v>
+      </c>
+      <c r="J71">
+        <v>0.04131413891148331</v>
+      </c>
+      <c r="K71">
+        <v>0.1107230584480903</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B72">
-        <v>0.005682163106893349</v>
+        <v>0.05287200592240195</v>
       </c>
       <c r="C72">
-        <v>-0.1432569942927364</v>
+        <v>-0.1367062117739592</v>
       </c>
       <c r="D72">
-        <v>0.07437150141037534</v>
+        <v>-0.04893012796429685</v>
       </c>
       <c r="E72">
-        <v>-0.009982699754236091</v>
+        <v>-0.06357185542263495</v>
       </c>
       <c r="F72">
-        <v>-0.0446953220202312</v>
+        <v>-0.008407713358510326</v>
       </c>
       <c r="G72">
-        <v>0.117012547701726</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.008585683377864266</v>
+      </c>
+      <c r="H72">
+        <v>0.006036786784991533</v>
+      </c>
+      <c r="I72">
+        <v>0.05595647202807556</v>
+      </c>
+      <c r="J72">
+        <v>0.01507109348259163</v>
+      </c>
+      <c r="K72">
+        <v>-0.1120546774656074</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B73">
-        <v>0.0685993350531269</v>
+        <v>0.1568770961671502</v>
       </c>
       <c r="C73">
-        <v>-0.09773263083183908</v>
+        <v>-0.1949749471484235</v>
       </c>
       <c r="D73">
-        <v>0.1214789521880822</v>
+        <v>-0.0834000412895216</v>
       </c>
       <c r="E73">
-        <v>-0.1509539386209783</v>
+        <v>-0.1467234808891899</v>
       </c>
       <c r="F73">
-        <v>0.2266081940673584</v>
+        <v>-0.03979794017365556</v>
       </c>
       <c r="G73">
-        <v>0.3267293612054409</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.2122646577477841</v>
+      </c>
+      <c r="H73">
+        <v>0.315338214606565</v>
+      </c>
+      <c r="I73">
+        <v>-0.3431526781142935</v>
+      </c>
+      <c r="J73">
+        <v>-0.05392129071951138</v>
+      </c>
+      <c r="K73">
+        <v>0.1305624285278782</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B74">
-        <v>0.0119330676837872</v>
+        <v>0.03893412993146891</v>
       </c>
       <c r="C74">
-        <v>-0.0811873483863117</v>
+        <v>-0.09784393439692027</v>
       </c>
       <c r="D74">
-        <v>0.07070895403534522</v>
+        <v>-0.04525973171231464</v>
       </c>
       <c r="E74">
-        <v>-0.07027655410203468</v>
+        <v>-0.0374886686236851</v>
       </c>
       <c r="F74">
-        <v>0.04523711817317821</v>
+        <v>-0.02363516946655088</v>
       </c>
       <c r="G74">
-        <v>-0.04103185154689119</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.01061843292567988</v>
+      </c>
+      <c r="H74">
+        <v>-0.05157343050037744</v>
+      </c>
+      <c r="I74">
+        <v>0.01246414604156415</v>
+      </c>
+      <c r="J74">
+        <v>0.02778346895582808</v>
+      </c>
+      <c r="K74">
+        <v>-0.01342396746672275</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B75">
-        <v>0.03613091093984035</v>
+        <v>0.06378066974518388</v>
       </c>
       <c r="C75">
-        <v>-0.1416232792568762</v>
+        <v>-0.1644440970612904</v>
       </c>
       <c r="D75">
-        <v>0.07589382456114697</v>
+        <v>-0.0824436313927944</v>
       </c>
       <c r="E75">
-        <v>-0.1628055297371569</v>
+        <v>-0.05027753593120039</v>
       </c>
       <c r="F75">
-        <v>0.03585085954853268</v>
+        <v>-0.04645413384510757</v>
       </c>
       <c r="G75">
-        <v>-0.1760362255453213</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.08186339085049277</v>
+      </c>
+      <c r="H75">
+        <v>-0.2179211097074341</v>
+      </c>
+      <c r="I75">
+        <v>0.03732881098243385</v>
+      </c>
+      <c r="J75">
+        <v>-0.02559550288443792</v>
+      </c>
+      <c r="K75">
+        <v>0.1243645432952033</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B76">
-        <v>0.01204027666531103</v>
+        <v>0.04572313345565022</v>
       </c>
       <c r="C76">
-        <v>-0.1046860368670336</v>
+        <v>-0.1256198786379389</v>
       </c>
       <c r="D76">
-        <v>0.06199877945429484</v>
+        <v>-0.07434502738830864</v>
       </c>
       <c r="E76">
-        <v>-0.09128419941746921</v>
+        <v>-0.04164518164275687</v>
       </c>
       <c r="F76">
-        <v>0.0565286527469829</v>
+        <v>-0.000646255582844658</v>
       </c>
       <c r="G76">
-        <v>-0.05292243050507874</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.07187516453000693</v>
+      </c>
+      <c r="H76">
+        <v>-0.07982716532312366</v>
+      </c>
+      <c r="I76">
+        <v>0.01328741235035269</v>
+      </c>
+      <c r="J76">
+        <v>-0.03682612547816667</v>
+      </c>
+      <c r="K76">
+        <v>-0.02704801597574526</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B77">
-        <v>0.09211447296411468</v>
+        <v>0.05536593657998055</v>
       </c>
       <c r="C77">
-        <v>-0.3764017645940884</v>
+        <v>-0.3999056455208376</v>
       </c>
       <c r="D77">
-        <v>-0.8369213380520617</v>
+        <v>0.899395717347799</v>
       </c>
       <c r="E77">
-        <v>-0.2676351969812421</v>
+        <v>-0.006401116184365317</v>
       </c>
       <c r="F77">
-        <v>0.1317380838323826</v>
+        <v>-0.0325208691744354</v>
       </c>
       <c r="G77">
-        <v>0.04761744693204723</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.07000017429206377</v>
+      </c>
+      <c r="H77">
+        <v>-0.02825720558782992</v>
+      </c>
+      <c r="I77">
+        <v>0.07968966538441416</v>
+      </c>
+      <c r="J77">
+        <v>-0.02577216929894569</v>
+      </c>
+      <c r="K77">
+        <v>0.02411367323217038</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B78">
-        <v>0.03094446533806351</v>
+        <v>0.03934833305718152</v>
       </c>
       <c r="C78">
-        <v>-0.1293878880394592</v>
+        <v>-0.1162630681823923</v>
       </c>
       <c r="D78">
-        <v>0.1814025919767185</v>
+        <v>-0.09410064615151552</v>
       </c>
       <c r="E78">
-        <v>0.078408654412194</v>
+        <v>0.02246688258308276</v>
       </c>
       <c r="F78">
-        <v>0.1380680829866018</v>
+        <v>0.05528510631245422</v>
       </c>
       <c r="G78">
-        <v>-0.1268027383612503</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.01556826173348148</v>
+      </c>
+      <c r="H78">
+        <v>-0.1121072970984469</v>
+      </c>
+      <c r="I78">
+        <v>0.03714970049356432</v>
+      </c>
+      <c r="J78">
+        <v>0.08206740761812283</v>
+      </c>
+      <c r="K78">
+        <v>-0.08283995943380247</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B79">
-        <v>0.02092118158527903</v>
+        <v>0.05828174322104921</v>
       </c>
       <c r="C79">
-        <v>-0.1613012306324342</v>
+        <v>-0.1421180859375031</v>
       </c>
       <c r="D79">
-        <v>0.1107071278398616</v>
+        <v>-0.06829387382409534</v>
       </c>
       <c r="E79">
-        <v>-0.1298562367250742</v>
+        <v>-0.04952607711121677</v>
       </c>
       <c r="F79">
-        <v>0.07329759953232204</v>
+        <v>0.009199333682948008</v>
       </c>
       <c r="G79">
-        <v>-0.2747365365581138</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>-0.04130216583408577</v>
+      </c>
+      <c r="H79">
+        <v>-0.2585114630086865</v>
+      </c>
+      <c r="I79">
+        <v>0.0469568198899507</v>
+      </c>
+      <c r="J79">
+        <v>0.04472197031592707</v>
+      </c>
+      <c r="K79">
+        <v>0.05296167231652313</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B80">
-        <v>0.007771097301104913</v>
+        <v>0.02083403157064017</v>
       </c>
       <c r="C80">
-        <v>-0.05104162068187255</v>
+        <v>-0.04340706076335411</v>
       </c>
       <c r="D80">
-        <v>0.04861248410504705</v>
+        <v>-0.03755449118033913</v>
       </c>
       <c r="E80">
-        <v>0.03727801095589772</v>
+        <v>0.01714560641938623</v>
       </c>
       <c r="F80">
-        <v>0.008440252641510585</v>
+        <v>0.05886013100993452</v>
       </c>
       <c r="G80">
-        <v>2.824139536038144e-05</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.01235706806229271</v>
+      </c>
+      <c r="H80">
+        <v>0.07232694979057129</v>
+      </c>
+      <c r="I80">
+        <v>-0.05016121428684567</v>
+      </c>
+      <c r="J80">
+        <v>-0.004970846664194308</v>
+      </c>
+      <c r="K80">
+        <v>0.03803928478021978</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B81">
-        <v>0.00232711770510077</v>
+        <v>0.01708217414545615</v>
       </c>
       <c r="C81">
-        <v>-0.07920250230258398</v>
+        <v>-0.09542935905360717</v>
       </c>
       <c r="D81">
-        <v>0.07188168281813131</v>
+        <v>-0.05655240038192784</v>
       </c>
       <c r="E81">
-        <v>-0.08086614566230177</v>
+        <v>-0.03178231982294708</v>
       </c>
       <c r="F81">
-        <v>0.05225513674266026</v>
+        <v>0.0101681659082535</v>
       </c>
       <c r="G81">
-        <v>-0.08104758118959582</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.0303264648607403</v>
+      </c>
+      <c r="H81">
+        <v>-0.1052977784852508</v>
+      </c>
+      <c r="I81">
+        <v>0.05907431999723681</v>
+      </c>
+      <c r="J81">
+        <v>0.04565236713607064</v>
+      </c>
+      <c r="K81">
+        <v>0.03738908034685785</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B82">
-        <v>0.01525133047044177</v>
+        <v>0.04707169654759837</v>
       </c>
       <c r="C82">
-        <v>-0.07736624797045689</v>
+        <v>-0.1058570202269838</v>
       </c>
       <c r="D82">
-        <v>0.06890150831496021</v>
+        <v>-0.06402538112828687</v>
       </c>
       <c r="E82">
-        <v>-0.0965234142121056</v>
+        <v>-0.03652695894963195</v>
       </c>
       <c r="F82">
-        <v>0.0505824386675146</v>
+        <v>0.01197488016122119</v>
       </c>
       <c r="G82">
-        <v>-0.03595233220408858</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>-0.06683471527545398</v>
+      </c>
+      <c r="H82">
+        <v>-0.07650204098183823</v>
+      </c>
+      <c r="I82">
+        <v>0.02900506222208182</v>
+      </c>
+      <c r="J82">
+        <v>-0.02339697796763691</v>
+      </c>
+      <c r="K82">
+        <v>0.005507186346656651</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B83">
-        <v>0.0004143488808371709</v>
+        <v>-6.163920672682874e-05</v>
       </c>
       <c r="C83">
-        <v>-0.02840197144646803</v>
+        <v>0.02346889698550666</v>
       </c>
       <c r="D83">
-        <v>-0.1250250678296114</v>
+        <v>0.05718961465684191</v>
       </c>
       <c r="E83">
-        <v>0.6156992422655253</v>
+        <v>-0.2412386646548534</v>
       </c>
       <c r="F83">
-        <v>0.6550352411858863</v>
+        <v>0.9237551691646458</v>
       </c>
       <c r="G83">
-        <v>-0.1914479999509611</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.113467831026195</v>
+      </c>
+      <c r="H83">
+        <v>-0.008142452690353493</v>
+      </c>
+      <c r="I83">
+        <v>-0.03918097177859703</v>
+      </c>
+      <c r="J83">
+        <v>-0.1069046535023038</v>
+      </c>
+      <c r="K83">
+        <v>-0.05286947598284707</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B84">
-        <v>-0.01124751460777502</v>
+        <v>0.01381548069307434</v>
       </c>
       <c r="C84">
-        <v>-0.09014740682391399</v>
+        <v>-0.06398894455323216</v>
       </c>
       <c r="D84">
-        <v>0.0366370474189902</v>
+        <v>-0.08822815313437701</v>
       </c>
       <c r="E84">
-        <v>0.05518122799482273</v>
+        <v>0.3854254675777683</v>
       </c>
       <c r="F84">
-        <v>-0.1456610377578238</v>
+        <v>0.06657419375473118</v>
       </c>
       <c r="G84">
-        <v>-0.00717256384154366</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>-0.07422820468435153</v>
+      </c>
+      <c r="H84">
+        <v>0.1329537747673171</v>
+      </c>
+      <c r="I84">
+        <v>0.3248660874218663</v>
+      </c>
+      <c r="J84">
+        <v>-0.7723213950916161</v>
+      </c>
+      <c r="K84">
+        <v>0.1562382590908616</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B85">
-        <v>-0.0002489917131826799</v>
+        <v>0.03125492885072028</v>
       </c>
       <c r="C85">
-        <v>-0.1114478072021843</v>
+        <v>-0.1154242339541786</v>
       </c>
       <c r="D85">
-        <v>0.07784770145742693</v>
+        <v>-0.08200692277307024</v>
       </c>
       <c r="E85">
-        <v>-0.1078143313934822</v>
+        <v>-0.07155618070329525</v>
       </c>
       <c r="F85">
-        <v>0.06450766242262242</v>
+        <v>0.0008035412395710253</v>
       </c>
       <c r="G85">
-        <v>-0.194754097222642</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.09952603947892684</v>
+      </c>
+      <c r="H85">
+        <v>-0.2297021292185124</v>
+      </c>
+      <c r="I85">
+        <v>0.03175743753116809</v>
+      </c>
+      <c r="J85">
+        <v>-0.03484597614190988</v>
+      </c>
+      <c r="K85">
+        <v>0.06511843566316895</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B86">
-        <v>0.01995728565868045</v>
+        <v>0.01485126175327093</v>
       </c>
       <c r="C86">
-        <v>-0.08164683934787782</v>
+        <v>-0.07907907127362696</v>
       </c>
       <c r="D86">
-        <v>-0.005601104111488218</v>
+        <v>-0.03124258828974098</v>
       </c>
       <c r="E86">
-        <v>0.01165150598032484</v>
+        <v>0.07265339052029318</v>
       </c>
       <c r="F86">
-        <v>-0.01319254521416123</v>
+        <v>0.02909479308077338</v>
       </c>
       <c r="G86">
-        <v>0.07558826953812348</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.05322823908547144</v>
+      </c>
+      <c r="H86">
+        <v>-0.05550017275864475</v>
+      </c>
+      <c r="I86">
+        <v>-0.04979231031410468</v>
+      </c>
+      <c r="J86">
+        <v>0.116314670733149</v>
+      </c>
+      <c r="K86">
+        <v>0.123506956334929</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B87">
-        <v>0.02487533832057684</v>
+        <v>0.02694961901962158</v>
       </c>
       <c r="C87">
-        <v>-0.1609938280818043</v>
+        <v>-0.1175454877124692</v>
       </c>
       <c r="D87">
-        <v>0.03926215699447604</v>
+        <v>-0.01998186577088024</v>
       </c>
       <c r="E87">
-        <v>0.08375456226288985</v>
+        <v>-0.009936707916541439</v>
       </c>
       <c r="F87">
-        <v>-0.05778149451262706</v>
+        <v>0.0008982145867447517</v>
       </c>
       <c r="G87">
-        <v>-0.008918418901409301</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.06075041100620871</v>
+      </c>
+      <c r="H87">
+        <v>-0.003197899336343824</v>
+      </c>
+      <c r="I87">
+        <v>0.04841955452930576</v>
+      </c>
+      <c r="J87">
+        <v>-0.01010756051983645</v>
+      </c>
+      <c r="K87">
+        <v>-0.09212956931747994</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B88">
-        <v>0.005818909925720237</v>
+        <v>0.03903582210037262</v>
       </c>
       <c r="C88">
-        <v>-0.03259621831943206</v>
+        <v>-0.05912625295540393</v>
       </c>
       <c r="D88">
-        <v>0.03731860255449654</v>
+        <v>-0.03921234880595603</v>
       </c>
       <c r="E88">
-        <v>-0.04744401120904998</v>
+        <v>-0.02918365828440307</v>
       </c>
       <c r="F88">
-        <v>0.008665434584524765</v>
+        <v>-0.01885722879052195</v>
       </c>
       <c r="G88">
-        <v>0.01649131491422368</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.004682374839980366</v>
+      </c>
+      <c r="H88">
+        <v>0.01219451791092819</v>
+      </c>
+      <c r="I88">
+        <v>0.002333685041130987</v>
+      </c>
+      <c r="J88">
+        <v>0.01580237601444282</v>
+      </c>
+      <c r="K88">
+        <v>-0.01805421176428203</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B89">
-        <v>0.4013289153519764</v>
+        <v>0.3896163414201843</v>
       </c>
       <c r="C89">
-        <v>0.06938173846863291</v>
+        <v>0.1199864713743813</v>
       </c>
       <c r="D89">
-        <v>0.0713651041334248</v>
+        <v>0.03849393723133399</v>
       </c>
       <c r="E89">
-        <v>0.05066443778116141</v>
+        <v>0.02683529094978164</v>
       </c>
       <c r="F89">
-        <v>-0.09813180932255695</v>
+        <v>-0.03751244893960347</v>
       </c>
       <c r="G89">
-        <v>-0.02159590116935957</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.0474908097363006</v>
+      </c>
+      <c r="H89">
+        <v>0.04445440159994642</v>
+      </c>
+      <c r="I89">
+        <v>0.04067290581162086</v>
+      </c>
+      <c r="J89">
+        <v>-0.06127143197552905</v>
+      </c>
+      <c r="K89">
+        <v>-0.7439110916126035</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B90">
-        <v>0.3065055467967642</v>
+        <v>0.3160711545285042</v>
       </c>
       <c r="C90">
-        <v>0.02194360439283382</v>
+        <v>0.07891290212622523</v>
       </c>
       <c r="D90">
-        <v>0.003634123307132817</v>
+        <v>0.01951391572784908</v>
       </c>
       <c r="E90">
-        <v>0.07474893213879039</v>
+        <v>0.01278587934368037</v>
       </c>
       <c r="F90">
-        <v>0.03986505587082469</v>
+        <v>0.01097643374307198</v>
       </c>
       <c r="G90">
-        <v>0.01690856554275109</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.02843567445368197</v>
+      </c>
+      <c r="H90">
+        <v>0.00361812793199696</v>
+      </c>
+      <c r="I90">
+        <v>0.0155981376459004</v>
+      </c>
+      <c r="J90">
+        <v>-0.01288751964701732</v>
+      </c>
+      <c r="K90">
+        <v>0.09692166168325488</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B91">
-        <v>0.02245377193903267</v>
+        <v>0.0563730088052205</v>
       </c>
       <c r="C91">
-        <v>-0.07844345841254689</v>
+        <v>-0.07906105160522192</v>
       </c>
       <c r="D91">
-        <v>0.06092116362810902</v>
+        <v>-0.05297714821856998</v>
       </c>
       <c r="E91">
-        <v>-0.05783566032850051</v>
+        <v>-0.05853409984468199</v>
       </c>
       <c r="F91">
-        <v>0.05712342431512711</v>
+        <v>0.02977125156457033</v>
       </c>
       <c r="G91">
-        <v>-0.07634955117767825</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.02987445685924077</v>
+      </c>
+      <c r="H91">
+        <v>-0.09071696657212139</v>
+      </c>
+      <c r="I91">
+        <v>-0.002404180903554838</v>
+      </c>
+      <c r="J91">
+        <v>-0.02095759655822779</v>
+      </c>
+      <c r="K91">
+        <v>0.007539995416637919</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B92">
-        <v>0.3827474545365665</v>
+        <v>0.3497406106010924</v>
       </c>
       <c r="C92">
-        <v>0.06419854822062186</v>
+        <v>0.1252775107245714</v>
       </c>
       <c r="D92">
-        <v>-0.01865860225473953</v>
+        <v>0.05666736797523656</v>
       </c>
       <c r="E92">
-        <v>-0.02411170669651396</v>
+        <v>0.02935402846771903</v>
       </c>
       <c r="F92">
-        <v>-0.1211748371032509</v>
+        <v>-0.03873845823402144</v>
       </c>
       <c r="G92">
-        <v>-0.01058940304335114</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.05106138194808227</v>
+      </c>
+      <c r="H92">
+        <v>-0.008079822994631614</v>
+      </c>
+      <c r="I92">
+        <v>0.05070946070570979</v>
+      </c>
+      <c r="J92">
+        <v>0.04662768636567621</v>
+      </c>
+      <c r="K92">
+        <v>0.1397845592772613</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B93">
-        <v>0.3064117750036415</v>
+        <v>0.3069116098089594</v>
       </c>
       <c r="C93">
-        <v>0.07168000599262098</v>
+        <v>0.1225416256780661</v>
       </c>
       <c r="D93">
-        <v>0.01202943895000954</v>
+        <v>0.007424346109254368</v>
       </c>
       <c r="E93">
-        <v>0.06848435596035091</v>
+        <v>0.04632707187232875</v>
       </c>
       <c r="F93">
-        <v>-0.04308100966643788</v>
+        <v>0.008362788207603581</v>
       </c>
       <c r="G93">
-        <v>-0.008327656856594262</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.03233722839552494</v>
+      </c>
+      <c r="H93">
+        <v>-0.0346067705597287</v>
+      </c>
+      <c r="I93">
+        <v>0.01961336885853111</v>
+      </c>
+      <c r="J93">
+        <v>0.03045459222140741</v>
+      </c>
+      <c r="K93">
+        <v>0.1150327937343632</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B94">
-        <v>0.02859170092320961</v>
+        <v>0.08339543376917967</v>
       </c>
       <c r="C94">
-        <v>-0.185749474767483</v>
+        <v>-0.1648744873204621</v>
       </c>
       <c r="D94">
-        <v>0.1357774835329788</v>
+        <v>-0.1128290002995486</v>
       </c>
       <c r="E94">
-        <v>-0.1944961433131205</v>
+        <v>-0.082566486175078</v>
       </c>
       <c r="F94">
-        <v>0.02938132073382096</v>
+        <v>0.01583398718834901</v>
       </c>
       <c r="G94">
-        <v>-0.5854133842627463</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.1145105089792562</v>
+      </c>
+      <c r="H94">
+        <v>-0.5602311882808101</v>
+      </c>
+      <c r="I94">
+        <v>-0.08729493178485795</v>
+      </c>
+      <c r="J94">
+        <v>-0.1520177000080154</v>
+      </c>
+      <c r="K94">
+        <v>-0.05917816751596378</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B95">
-        <v>0.01964894922598859</v>
+        <v>0.04414097489635717</v>
       </c>
       <c r="C95">
-        <v>-0.1147322578744526</v>
+        <v>-0.1300369271386088</v>
       </c>
       <c r="D95">
-        <v>0.04772870578912737</v>
+        <v>-0.06416993027323915</v>
       </c>
       <c r="E95">
-        <v>-0.04431587571786703</v>
+        <v>-0.01757200817827052</v>
       </c>
       <c r="F95">
-        <v>0.09484773940175226</v>
+        <v>-0.02853301908982142</v>
       </c>
       <c r="G95">
-        <v>0.04480709497151669</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.08309033251460657</v>
+      </c>
+      <c r="H95">
+        <v>0.05639408609043584</v>
+      </c>
+      <c r="I95">
+        <v>0.07700698300958062</v>
+      </c>
+      <c r="J95">
+        <v>-0.08277810945431978</v>
+      </c>
+      <c r="K95">
+        <v>-0.1604184120430848</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,79 +4060,127 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B97">
-        <v>9.041413919593164e-05</v>
+        <v>0.02031663102251478</v>
       </c>
       <c r="C97">
-        <v>-0.0005360951713066169</v>
+        <v>-0.02525517730740677</v>
       </c>
       <c r="D97">
-        <v>0.0005558193311531313</v>
+        <v>0.008200547020753259</v>
       </c>
       <c r="E97">
-        <v>-0.0035571868451704</v>
+        <v>0.04611509389708433</v>
       </c>
       <c r="F97">
-        <v>-0.0001464816007625424</v>
+        <v>-0.008764991344728787</v>
       </c>
       <c r="G97">
-        <v>0.005943317324642231</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>-0.03538170880926845</v>
+      </c>
+      <c r="H97">
+        <v>0.03014880838200849</v>
+      </c>
+      <c r="I97">
+        <v>-0.0216773380221501</v>
+      </c>
+      <c r="J97">
+        <v>0.04633201041446238</v>
+      </c>
+      <c r="K97">
+        <v>-0.04979642761766265</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B98">
-        <v>0.08451981725326044</v>
+        <v>0.13895465898082</v>
       </c>
       <c r="C98">
-        <v>-0.1365884566710464</v>
+        <v>-0.1588293618792049</v>
       </c>
       <c r="D98">
-        <v>0.1429924246405874</v>
+        <v>-0.08847430523424694</v>
       </c>
       <c r="E98">
-        <v>-0.1122166835042826</v>
+        <v>-0.1679718833582987</v>
       </c>
       <c r="F98">
-        <v>0.1469404097909759</v>
+        <v>-0.01902193481813073</v>
       </c>
       <c r="G98">
-        <v>0.2009798228510407</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.1910953599233697</v>
+      </c>
+      <c r="H98">
+        <v>0.2427750473033841</v>
+      </c>
+      <c r="I98">
+        <v>-0.3377997325139365</v>
+      </c>
+      <c r="J98">
+        <v>-0.09225508351888252</v>
+      </c>
+      <c r="K98">
+        <v>0.1370602735342813</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>0.02942431298838945</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>-0.05829340712436165</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>-0.00787097629707096</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>0.7205907301099651</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>0.2575788599456539</v>
       </c>
       <c r="G99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>-0.449611577669468</v>
+      </c>
+      <c r="H99">
+        <v>-0.03439549103733677</v>
+      </c>
+      <c r="I99">
+        <v>-0.2486119521810176</v>
+      </c>
+      <c r="J99">
+        <v>0.2758731351354365</v>
+      </c>
+      <c r="K99">
+        <v>-0.08896918018656436</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,56 +4200,92 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B101">
-        <v>0.01017132295339344</v>
+        <v>0.01703440928034501</v>
       </c>
       <c r="C101">
-        <v>-0.07945121379864546</v>
+        <v>-0.08179328871343916</v>
       </c>
       <c r="D101">
-        <v>0.04902447675944103</v>
+        <v>-0.04731924642856174</v>
       </c>
       <c r="E101">
-        <v>0.01881629131479853</v>
+        <v>-0.01737259614479251</v>
       </c>
       <c r="F101">
-        <v>0.03575302881824442</v>
+        <v>0.04224155654665892</v>
       </c>
       <c r="G101">
-        <v>0.114815812288288</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.001729682218833483</v>
+      </c>
+      <c r="H101">
+        <v>0.1742822503206394</v>
+      </c>
+      <c r="I101">
+        <v>0.2280955905270708</v>
+      </c>
+      <c r="J101">
+        <v>0.1024486798721709</v>
+      </c>
+      <c r="K101">
+        <v>-0.002483318339640145</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B102">
-        <v>0.004482182190919085</v>
+        <v>0.002012154561285029</v>
       </c>
       <c r="C102">
-        <v>-0.01643588846202059</v>
+        <v>-0.006508867298759618</v>
       </c>
       <c r="D102">
-        <v>-0.002406846784908388</v>
+        <v>0.002683880014059375</v>
       </c>
       <c r="E102">
-        <v>-0.01779581786281458</v>
+        <v>-0.004027795505762367</v>
       </c>
       <c r="F102">
-        <v>0.01881383615925032</v>
+        <v>0.0009086313686616454</v>
       </c>
       <c r="G102">
-        <v>-0.007038524626840089</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>-0.00212787173132075</v>
+      </c>
+      <c r="H102">
+        <v>-0.003838550163542676</v>
+      </c>
+      <c r="I102">
+        <v>0.006523826381474164</v>
+      </c>
+      <c r="J102">
+        <v>0.004891553709855713</v>
+      </c>
+      <c r="K102">
+        <v>-0.01341340323936679</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3069,10 +4305,22 @@
       <c r="G103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4338,18 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
         <v>0</v>
       </c>
     </row>
